--- a/BOM/11-29-2022.xlsx
+++ b/BOM/11-29-2022.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ejangelico/Documents/Stanford/LAPPD/Anodes/samtec-adapter-v2a/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ejangelico/Documents/Stanford/LAPPD/Anodes/stripline-anode-capacitive-readout/BOM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59C87F40-8842-EC46-AF8C-C0395CB415D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9220CC62-00D1-3B44-8A27-31238334B505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3200" yWindow="500" windowWidth="25600" windowHeight="16260" xr2:uid="{F2077957-3B34-F443-BA74-5CFAF79BDB72}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>ID</t>
   </si>
@@ -65,12 +65,6 @@
     <t>link</t>
   </si>
   <si>
-    <t>here</t>
-  </si>
-  <si>
-    <t>Digikey</t>
-  </si>
-  <si>
     <t>Note</t>
   </si>
   <si>
@@ -87,81 +81,6 @@
   </si>
   <si>
     <t>spare per board</t>
-  </si>
-  <si>
-    <t>QPC6064</t>
-  </si>
-  <si>
-    <t>RFMW</t>
-  </si>
-  <si>
-    <t>SP6T RF switch</t>
-  </si>
-  <si>
-    <t>QP1, QP2, QP3, QP4, QP5</t>
-  </si>
-  <si>
-    <t>J1, J2, J3, J4, J5</t>
-  </si>
-  <si>
-    <t>SW1, SW2, SW3, SW4, SW5</t>
-  </si>
-  <si>
-    <t>3-position dip switch</t>
-  </si>
-  <si>
-    <t>76SB03T</t>
-  </si>
-  <si>
-    <t>GH7168-ND</t>
-  </si>
-  <si>
-    <t>Conn_Coaxial</t>
-  </si>
-  <si>
-    <t>SMA right angle</t>
-  </si>
-  <si>
-    <t>17-5-1814400-2CT-ND</t>
-  </si>
-  <si>
-    <t>Jumper</t>
-  </si>
-  <si>
-    <t>Battery holder</t>
-  </si>
-  <si>
-    <t>A144288-ND</t>
-  </si>
-  <si>
-    <t>B1</t>
-  </si>
-  <si>
-    <t>TSV diode (transient suppression)</t>
-  </si>
-  <si>
-    <t>GSOT05C-E3-08CT-ND</t>
-  </si>
-  <si>
-    <t>TS1</t>
-  </si>
-  <si>
-    <t>1528-2553-ND</t>
-  </si>
-  <si>
-    <t>Switched barrel connector</t>
-  </si>
-  <si>
-    <t>450-1567-ND</t>
-  </si>
-  <si>
-    <t>Battery disconnect switch</t>
-  </si>
-  <si>
-    <t>BSW</t>
-  </si>
-  <si>
-    <t>PEXT</t>
   </si>
   <si>
     <t>Samtec QRM078</t>
@@ -539,8 +458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70CF9324-42B4-FB42-9994-120323B15401}">
   <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -567,10 +486,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -579,7 +498,7 @@
         <v>2</v>
       </c>
       <c r="G1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H1" t="s">
         <v>4</v>
@@ -600,182 +519,51 @@
         <v>9</v>
       </c>
       <c r="N1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="O1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="I2" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="M2" s="1"/>
       <c r="O2" s="3"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="D3">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="H3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L3" t="s">
-        <v>26</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="M3" s="1"/>
       <c r="O3" s="3"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="D4">
-        <v>3.75</v>
-      </c>
-      <c r="H4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4" t="s">
-        <v>27</v>
-      </c>
-      <c r="K4" t="s">
-        <v>11</v>
-      </c>
-      <c r="L4" t="s">
-        <v>29</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="M4" s="1"/>
       <c r="O4" s="3">
         <v>44275</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="D5">
-        <v>5.33</v>
-      </c>
-      <c r="H5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L5" t="s">
-        <v>18</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="M5" s="1"/>
       <c r="O5" s="3"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="I6" t="s">
-        <v>30</v>
-      </c>
       <c r="M6" s="1"/>
       <c r="O6" s="3"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="D7">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="H7" t="s">
-        <v>33</v>
-      </c>
-      <c r="I7" t="s">
-        <v>31</v>
-      </c>
-      <c r="K7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L7" t="s">
-        <v>32</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="M7" s="1"/>
       <c r="O7" s="3"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="D8">
-        <v>0.41</v>
-      </c>
-      <c r="H8" t="s">
-        <v>36</v>
-      </c>
-      <c r="I8" t="s">
-        <v>34</v>
-      </c>
-      <c r="K8" t="s">
-        <v>11</v>
-      </c>
-      <c r="L8" t="s">
-        <v>35</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="M8" s="1"/>
       <c r="O8" s="3"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="D9">
-        <v>0.86</v>
-      </c>
-      <c r="H9" t="s">
-        <v>41</v>
-      </c>
-      <c r="I9" t="s">
-        <v>40</v>
-      </c>
-      <c r="K9" t="s">
-        <v>11</v>
-      </c>
-      <c r="L9" t="s">
-        <v>39</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="M9" s="1"/>
       <c r="O9" s="3"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="D10">
-        <v>1.5</v>
-      </c>
-      <c r="H10" t="s">
-        <v>42</v>
-      </c>
-      <c r="I10" t="s">
-        <v>38</v>
-      </c>
-      <c r="K10" t="s">
-        <v>11</v>
-      </c>
-      <c r="L10" t="s">
-        <v>37</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="M10" s="1"/>
       <c r="O10" s="3"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
@@ -860,7 +648,7 @@
     </row>
     <row r="31" spans="7:15" x14ac:dyDescent="0.2">
       <c r="G31" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="7:15" x14ac:dyDescent="0.2">
@@ -870,15 +658,6 @@
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="M5" r:id="rId1" xr:uid="{14E5E7E0-90EF-C646-88C9-D41B5267D280}"/>
-    <hyperlink ref="M4" r:id="rId2" xr:uid="{A980B62A-6118-E04C-8649-F9B48CFA4BD6}"/>
-    <hyperlink ref="M3" r:id="rId3" xr:uid="{2612F521-1D22-7F49-8CC3-3A28C5C6039F}"/>
-    <hyperlink ref="M7" r:id="rId4" xr:uid="{400E5415-3EA8-2A47-8BF8-015C7FEB4FDA}"/>
-    <hyperlink ref="M8" r:id="rId5" xr:uid="{0EEDBD4A-3545-A041-9E4D-DE2818E7F991}"/>
-    <hyperlink ref="M10" r:id="rId6" xr:uid="{7E6793E3-7AAE-2947-A492-635DC319A73E}"/>
-    <hyperlink ref="M9" r:id="rId7" xr:uid="{46864AFC-FA27-F34E-B8C6-B4141955431B}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/BOM/11-29-2022.xlsx
+++ b/BOM/11-29-2022.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ejangelico/Documents/Stanford/LAPPD/Anodes/stripline-anode-capacitive-readout/BOM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9220CC62-00D1-3B44-8A27-31238334B505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40E69E97-F8EE-084F-95EE-0D8D0B58AE4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3200" yWindow="500" windowWidth="25600" windowHeight="16260" xr2:uid="{F2077957-3B34-F443-BA74-5CFAF79BDB72}"/>
+    <workbookView xWindow="6780" yWindow="23540" windowWidth="28800" windowHeight="16260" xr2:uid="{F2077957-3B34-F443-BA74-5CFAF79BDB72}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="39">
   <si>
     <t>ID</t>
   </si>
@@ -84,6 +84,72 @@
   </si>
   <si>
     <t>Samtec QRM078</t>
+  </si>
+  <si>
+    <t>here</t>
+  </si>
+  <si>
+    <t>660-HV733ATTE3004F</t>
+  </si>
+  <si>
+    <t>Mouser</t>
+  </si>
+  <si>
+    <t>3M</t>
+  </si>
+  <si>
+    <t>For example, 2512 package type HV resistors</t>
+  </si>
+  <si>
+    <t>100 pF</t>
+  </si>
+  <si>
+    <t>SMD HV resistor, 2512</t>
+  </si>
+  <si>
+    <t>581-1812HA101k</t>
+  </si>
+  <si>
+    <t>10 nF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SMD HV cap, 2220 </t>
+  </si>
+  <si>
+    <t>SMD HV cap, 1812</t>
+  </si>
+  <si>
+    <t>todo</t>
+  </si>
+  <si>
+    <t>80-C2220C103KHR</t>
+  </si>
+  <si>
+    <t>200V SMD Zener</t>
+  </si>
+  <si>
+    <t>D_SOD123</t>
+  </si>
+  <si>
+    <t>200V Zener</t>
+  </si>
+  <si>
+    <t>78-BZD27C200P-HE3-08</t>
+  </si>
+  <si>
+    <t>0.1 uF</t>
+  </si>
+  <si>
+    <t>SMD gnd cap, 1812</t>
+  </si>
+  <si>
+    <t>Angled SMD SMA Jack</t>
+  </si>
+  <si>
+    <t>Digikey</t>
+  </si>
+  <si>
+    <t>142-0711-271</t>
   </si>
 </sst>
 </file>
@@ -160,7 +226,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -448,7 +514,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -459,7 +525,7 @@
   <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -526,6 +592,9 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="H2" t="s">
+        <v>28</v>
+      </c>
       <c r="I2" t="s">
         <v>16</v>
       </c>
@@ -533,29 +602,131 @@
       <c r="O2" s="3"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="M3" s="1"/>
+      <c r="H3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N3" t="s">
+        <v>21</v>
+      </c>
       <c r="O3" s="3"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="M4" s="1"/>
+      <c r="H4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="O4" s="3">
         <v>44275</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="M5" s="1"/>
+      <c r="H5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="O5" s="3"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="M6" s="1"/>
+      <c r="H6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" t="s">
+        <v>33</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N6" t="s">
+        <v>31</v>
+      </c>
       <c r="O6" s="3"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="M7" s="1"/>
+      <c r="H7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="O7" s="3"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="M8" s="1"/>
+      <c r="H8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="O8" s="3"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
@@ -658,6 +829,14 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="M3" r:id="rId1" xr:uid="{261AB411-E9BB-3B48-86AB-54E42CFB6526}"/>
+    <hyperlink ref="M4" r:id="rId2" xr:uid="{32C13E35-7325-224A-8477-BCBC82C5F937}"/>
+    <hyperlink ref="M5" r:id="rId3" xr:uid="{CD36EBDB-1CC0-AC4C-9425-1AC4FB5B560C}"/>
+    <hyperlink ref="M6" r:id="rId4" xr:uid="{8895AB7B-BE70-DB41-B7E6-79F8DDA396BF}"/>
+    <hyperlink ref="M7" r:id="rId5" xr:uid="{615D5860-4E34-634C-9216-EEF016CC4A24}"/>
+    <hyperlink ref="M8" r:id="rId6" xr:uid="{BEC14091-6465-8F43-9D5B-6B982553A9F1}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>